--- a/TAWA_SystemRequirements.xlsx
+++ b/TAWA_SystemRequirements.xlsx
@@ -14,9 +14,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>SYSTEM_REQUIREMENTS</t>
+  </si>
+  <si>
+    <t>SR_001</t>
+  </si>
+  <si>
+    <t>SR_002</t>
+  </si>
+  <si>
+    <t>SR_003</t>
+  </si>
+  <si>
+    <t>SR_004</t>
+  </si>
+  <si>
+    <t>SR_005</t>
+  </si>
+  <si>
+    <t>SR_006</t>
+  </si>
+  <si>
+    <t>SR_007</t>
+  </si>
+  <si>
+    <t>SR_008</t>
+  </si>
+  <si>
+    <t>SR_009</t>
+  </si>
+  <si>
+    <t>The user will be able to register in the website with unique username which contains characters, special characters and numbers .</t>
+  </si>
+  <si>
+    <t>The required fields for registration are username,email,phone,fullname and password.</t>
+  </si>
+  <si>
+    <t>The user will be able to see other users pervious tours and their ratings for the tours.</t>
+  </si>
+  <si>
+    <t>The login process will be by username and password.</t>
+  </si>
+  <si>
+    <t>For the payment process it will be by cash or using debit card</t>
+  </si>
+  <si>
+    <t>SR_010</t>
+  </si>
+  <si>
+    <t>SR_011</t>
+  </si>
+  <si>
+    <t>SR_012</t>
+  </si>
+  <si>
+    <t>SR_013</t>
   </si>
   <si>
     <r>
@@ -80,65 +137,54 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>29/4/2019</t>
+      <t xml:space="preserve">29/4/2019
+</t>
     </r>
-  </si>
-  <si>
-    <t>SYSTEM_REQUIREMENTS</t>
-  </si>
-  <si>
-    <t>SR_001</t>
-  </si>
-  <si>
-    <t>SR_002</t>
-  </si>
-  <si>
-    <t>SR_003</t>
-  </si>
-  <si>
-    <t>SR_004</t>
-  </si>
-  <si>
-    <t>SR_005</t>
-  </si>
-  <si>
-    <t>SR_006</t>
-  </si>
-  <si>
-    <t>SR_007</t>
-  </si>
-  <si>
-    <t>SR_008</t>
-  </si>
-  <si>
-    <t>SR_009</t>
-  </si>
-  <si>
-    <t>The user will be able to register in the website with unique username which contains characters, special characters and numbers .</t>
-  </si>
-  <si>
-    <t>The required fields for registration are username,email,phone,fullname and password.</t>
-  </si>
-  <si>
-    <t>The user will be able to see other users pervious tours and their ratings for the tours.</t>
-  </si>
-  <si>
-    <t>The user will be able to book for his travel either going or going&amp;coming back trip.</t>
-  </si>
-  <si>
-    <t>The login process will be by username and password.</t>
-  </si>
-  <si>
-    <t>The admin, he/she can add or delete users.</t>
-  </si>
-  <si>
-    <t>For the payment process it will be by cash or using debit card</t>
-  </si>
-  <si>
-    <t>The response of the website will be five seconds.</t>
-  </si>
-  <si>
-    <t>The throughput of the website is 1000.</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Author</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: esraa salah</t>
+    </r>
+  </si>
+  <si>
+    <t>The user will enter the email which contains characters, special characters and numbers .</t>
+  </si>
+  <si>
+    <t>The user will enter the phone number which contains numbers only .</t>
+  </si>
+  <si>
+    <t>The user will enter the fullname which contains characters and numbers .</t>
+  </si>
+  <si>
+    <t>The user will enter the password which contains characters, special characters, numbers ,does not accept spaces and with length in betweeen 8 and 12 characters.</t>
+  </si>
+  <si>
+    <t>The user will be able to book for his/her travel either going or going&amp;coming back trip.</t>
+  </si>
+  <si>
+    <t>The admin can add or delete users.</t>
+  </si>
+  <si>
+    <t>The response time  of the website will be five seconds.</t>
+  </si>
+  <si>
+    <t>The throughput of the website is 1000 request.</t>
   </si>
 </sst>
 </file>
@@ -253,12 +299,6 @@
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -276,6 +316,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -581,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,30 +639,30 @@
     <col min="2" max="2" width="187.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+    </row>
+    <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>2</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -632,11 +678,11 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>12</v>
+      <c r="A3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -652,11 +698,11 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>13</v>
+      <c r="A4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -672,11 +718,11 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>16</v>
+      <c r="A5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -692,32 +738,31 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>15</v>
+      <c r="B7" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -733,11 +778,11 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>17</v>
+      <c r="A8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -753,11 +798,11 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>18</v>
+      <c r="A9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -773,31 +818,32 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>20</v>
+      <c r="B11" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -812,9 +858,13 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="8"/>
-      <c r="B12" s="1"/>
+    <row r="12" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -828,9 +878,13 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="8"/>
-      <c r="B13" s="1"/>
+    <row r="13" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -844,9 +898,13 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="8"/>
-      <c r="B14" s="1"/>
+    <row r="14" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -860,9 +918,13 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="8"/>
-      <c r="B15" s="1"/>
+    <row r="15" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -877,7 +939,7 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="8"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -893,7 +955,7 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="8"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -909,7 +971,7 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="8"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -925,7 +987,7 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="8"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -941,7 +1003,7 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20" s="8"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -957,7 +1019,7 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A21" s="8"/>
+      <c r="A21" s="6"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -973,7 +1035,7 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A22" s="8"/>
+      <c r="A22" s="6"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -989,7 +1051,7 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="8"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1005,7 +1067,7 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A24" s="8"/>
+      <c r="A24" s="6"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1021,7 +1083,7 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A25" s="8"/>
+      <c r="A25" s="6"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1037,7 +1099,7 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="8"/>
+      <c r="A26" s="6"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1053,7 +1115,7 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A27" s="8"/>
+      <c r="A27" s="6"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1069,24 +1131,88 @@
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A28" s="8"/>
+      <c r="A28" s="6"/>
       <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A29" s="8"/>
+      <c r="A29" s="6"/>
       <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
     </row>
     <row r="30" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A30" s="8"/>
+      <c r="A30" s="6"/>
       <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
     </row>
     <row r="31" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A31" s="8"/>
+      <c r="A31" s="6"/>
       <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
     </row>
     <row r="32" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A32" s="8"/>
+      <c r="A32" s="6"/>
       <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A33" s="6"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A34" s="6"/>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A35" s="6"/>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A36" s="6"/>
+      <c r="B36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/TAWA_SystemRequirements.xlsx
+++ b/TAWA_SystemRequirements.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -178,13 +178,37 @@
     <t>The user will be able to book for his/her travel either going or going&amp;coming back trip.</t>
   </si>
   <si>
-    <t>The admin can add or delete users.</t>
-  </si>
-  <si>
     <t>The response time  of the website will be five seconds.</t>
   </si>
   <si>
     <t>The throughput of the website is 1000 request.</t>
+  </si>
+  <si>
+    <t>The admin can add, search and delete users.</t>
+  </si>
+  <si>
+    <t>SR_014</t>
+  </si>
+  <si>
+    <t>The user will be able to see Travel destination details.</t>
+  </si>
+  <si>
+    <t>The user will be able to Explore Different Airlines.</t>
+  </si>
+  <si>
+    <t>SR_015</t>
+  </si>
+  <si>
+    <t>The user will be able to Send Feedback and share his experiences.</t>
+  </si>
+  <si>
+    <t>SR_016</t>
+  </si>
+  <si>
+    <t>The user and the admin will be able to logout.</t>
+  </si>
+  <si>
+    <t>SR_017</t>
   </si>
 </sst>
 </file>
@@ -243,7 +267,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -292,11 +316,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -321,6 +356,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -627,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -682,7 +720,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -702,7 +740,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -722,7 +760,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -742,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -762,7 +800,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -782,7 +820,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -843,47 +881,49 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
     </row>
     <row r="12" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>26</v>
+      <c r="B12" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
     </row>
     <row r="13" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -902,8 +942,8 @@
       <c r="A14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>27</v>
+      <c r="B14" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -923,7 +963,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -938,9 +978,13 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="6"/>
-      <c r="B16" s="1"/>
+    <row r="16" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -954,9 +998,13 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
-      <c r="B17" s="1"/>
+    <row r="17" spans="1:14" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -970,9 +1018,13 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="6"/>
-      <c r="B18" s="1"/>
+    <row r="18" spans="1:14" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -986,9 +1038,13 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="6"/>
-      <c r="B19" s="1"/>
+    <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1197,22 +1253,70 @@
     <row r="32" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="6"/>
       <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="6"/>
       <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="6"/>
       <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="6"/>
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="6"/>
       <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A37" s="6"/>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A38" s="6"/>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A39" s="6"/>
+      <c r="B39" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/TAWA_SystemRequirements.xlsx
+++ b/TAWA_SystemRequirements.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -199,16 +199,22 @@
     <t>SR_015</t>
   </si>
   <si>
-    <t>The user will be able to Send Feedback and share his experiences.</t>
-  </si>
-  <si>
     <t>SR_016</t>
   </si>
   <si>
-    <t>The user and the admin will be able to logout.</t>
-  </si>
-  <si>
     <t>SR_017</t>
+  </si>
+  <si>
+    <t>SR_018</t>
+  </si>
+  <si>
+    <t>The user will be able to logout.</t>
+  </si>
+  <si>
+    <t>The admin will be able to logout.</t>
+  </si>
+  <si>
+    <t>The user will be able to send feedback and share his experience.</t>
   </si>
 </sst>
 </file>
@@ -323,7 +329,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -331,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -358,7 +366,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -667,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:A19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -983,7 +994,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1019,10 +1030,10 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="1"/>
@@ -1040,10 +1051,10 @@
     </row>
     <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>35</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1058,9 +1069,13 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20" s="6"/>
-      <c r="B20" s="1"/>
+    <row r="20" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
